--- a/Planificacion.xlsx
+++ b/Planificacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seb4\Desktop\PrograAvanzadaVeterinaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67EE5B4-9D1D-45BD-8FB3-65EC04A21654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89CC221-3322-43DB-8BD9-B63DEC56F948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Boceto</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>QUE FALTA?</t>
-  </si>
-  <si>
-    <t>enlazar los botnes genericos a otras vistas</t>
   </si>
   <si>
     <t>DEFINIR QUE INFO MOSTRAR EN EL INICIO</t>
@@ -97,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +113,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -221,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -235,6 +238,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,7 +523,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,25 +561,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="7"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -582,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
@@ -592,7 +594,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
@@ -602,7 +604,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
@@ -612,7 +614,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
@@ -622,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
@@ -632,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
@@ -642,7 +644,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
@@ -652,7 +654,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
@@ -662,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
